--- a/DataFolder/ExcelFiles/Product groups/Бытовая техника/Варочные центры.xls.xlsx
+++ b/DataFolder/ExcelFiles/Product groups/Бытовая техника/Варочные центры.xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smeg\Desktop\Excel для SiteWrok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\Projects\SiteWork\DataFolder\ExcelFiles\Product groups\Бытовая техника\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -429,9 +429,6 @@
     <t>CC9GAX</t>
   </si>
   <si>
-    <t>Размеры (Ш х Г х В, см)</t>
-  </si>
-  <si>
     <t>60 х 60 х 85</t>
   </si>
   <si>
@@ -487,6 +484,9 @@
   </si>
   <si>
     <t>Класс энергопотребления</t>
+  </si>
+  <si>
+    <t>Габариты (Ш х Г х В, см)</t>
   </si>
 </sst>
 </file>
@@ -1515,13 +1515,13 @@
         <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>9</v>
@@ -1593,13 +1593,13 @@
         <v>27</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>32</v>
@@ -1617,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>38</v>
@@ -1671,13 +1671,13 @@
         <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>32</v>
@@ -1695,7 +1695,7 @@
         <v>37</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>38</v>
@@ -1746,16 +1746,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>32</v>
@@ -1770,7 +1770,7 @@
         <v>28</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>91</v>
@@ -1827,13 +1827,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>32</v>
@@ -1848,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>91</v>
@@ -1905,13 +1905,13 @@
         <v>55</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>32</v>
@@ -1926,7 +1926,7 @@
         <v>28</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S6" s="2" t="s">
         <v>91</v>
@@ -1980,16 +1980,16 @@
         <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>32</v>
@@ -2004,7 +2004,7 @@
         <v>28</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>91</v>
@@ -2058,16 +2058,16 @@
         <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>32</v>
@@ -2082,7 +2082,7 @@
         <v>28</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>91</v>
@@ -2139,13 +2139,13 @@
         <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>32</v>
@@ -2160,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S9" s="2" t="s">
         <v>91</v>
@@ -2217,13 +2217,13 @@
         <v>42</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>32</v>
@@ -2238,7 +2238,7 @@
         <v>28</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>91</v>
@@ -2295,7 +2295,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>30</v>
@@ -2316,10 +2316,10 @@
         <v>66</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>38</v>
@@ -2373,7 +2373,7 @@
         <v>55</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>30</v>
@@ -2394,10 +2394,10 @@
         <v>66</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>38</v>
@@ -2451,7 +2451,7 @@
         <v>55</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>30</v>
@@ -2472,10 +2472,10 @@
         <v>66</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>38</v>
@@ -2529,13 +2529,13 @@
         <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>31</v>
@@ -2607,13 +2607,13 @@
         <v>42</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>31</v>
@@ -2685,13 +2685,13 @@
         <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>31</v>
@@ -2763,13 +2763,13 @@
         <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>31</v>
@@ -2841,13 +2841,13 @@
         <v>55</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>31</v>
@@ -2919,13 +2919,13 @@
         <v>42</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>31</v>
@@ -2997,13 +2997,13 @@
         <v>27</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>31</v>
@@ -3075,13 +3075,13 @@
         <v>42</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>31</v>
@@ -3153,13 +3153,13 @@
         <v>42</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>31</v>
@@ -3231,13 +3231,13 @@
         <v>27</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>31</v>
@@ -3309,13 +3309,13 @@
         <v>42</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>126</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>31</v>
@@ -3387,7 +3387,7 @@
         <v>27</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>126</v>
@@ -3465,7 +3465,7 @@
         <v>55</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>126</v>
@@ -3543,7 +3543,7 @@
         <v>55</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>126</v>
@@ -3621,7 +3621,7 @@
         <v>55</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>126</v>
@@ -3699,7 +3699,7 @@
         <v>55</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>126</v>
@@ -3777,7 +3777,7 @@
         <v>27</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>126</v>
@@ -3855,7 +3855,7 @@
         <v>27</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>126</v>
@@ -3933,7 +3933,7 @@
         <v>42</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>126</v>
@@ -4011,7 +4011,7 @@
         <v>42</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>30</v>
@@ -4032,7 +4032,7 @@
         <v>28</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>91</v>
@@ -4089,7 +4089,7 @@
         <v>42</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>126</v>
@@ -4167,7 +4167,7 @@
         <v>55</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>30</v>
@@ -4188,7 +4188,7 @@
         <v>28</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S35" s="2" t="s">
         <v>91</v>
@@ -4245,7 +4245,7 @@
         <v>27</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>30</v>
@@ -4266,7 +4266,7 @@
         <v>28</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>91</v>
@@ -4323,7 +4323,7 @@
         <v>27</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>30</v>
@@ -4344,10 +4344,10 @@
         <v>66</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>38</v>
@@ -4401,7 +4401,7 @@
         <v>27</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>126</v>
